--- a/data_processed/20250711/BTCUSDVOLSURFACE_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDVOLSURFACE_20250711.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13971,7 +13971,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14850,7 +14850,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15020,7 +15020,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20265,7 +20265,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20323,7 +20323,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -49819,7 +49819,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -49902,7 +49902,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50698,7 +50698,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50752,7 +50752,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50806,7 +50806,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50864,7 +50864,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50947,7 +50947,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
